--- a/biology/Botanique/Malpighiaceae/Malpighiaceae.xlsx
+++ b/biology/Botanique/Malpighiaceae/Malpighiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Malpighiaceae (les Malpighiacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend plus de 1 200 espèces réparties en environ 65 genres.
 Ce sont des arbres, des arbustes, ou des lianes, aux feuilles opposées, des régions subtropicales à tropicales, surtout originaires d'Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Malpighia nommé en hommage au médecin et biologiste italien Marcello Malpighi (1628–1694), considéré comme le fondateur de l'anatomie microscopique ou histologie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Malpighia nommé en hommage au médecin et biologiste italien Marcello Malpighi (1628–1694), considéré comme le fondateur de l'anatomie microscopique ou histologie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2], la classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] situent cette famille dans l'ordre des Malpighiales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans l'ordre des Malpighiales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 août 2020)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 août 2020) :
 Acmanthera (en) Griseb.
 Acridocarpus Guill. &amp; Perr.
 Aspicarpa (es) Rich.
@@ -647,7 +665,7 @@
 Triopterys (es) L.
 Tristellateia (es) Thouars
 Verrucularia (es) A. Juss.
-Selon ITIS      (24 août 2020)[6] :
+Selon ITIS      (24 août 2020) :
 Aspicarpa Rich.
 Banisteriopsis C.B. Rob. ex Small
 Bunchosia Rich. ex Kunth
@@ -663,7 +681,7 @@
 Stigmaphyllon A. Juss.
 Tetrapterys Cav.
 Tristellateia Thouars
-Selon NCBI  (24 août 2020)[7] :
+Selon NCBI  (24 août 2020) :
 Acmanthera (A.Juss.) Griseb., 1858
 Acridocarpus Guill. &amp; Perr., 1831
 Adelphia (es) W.R.Anderson, 2006
@@ -740,7 +758,7 @@
 Triopterys L., 1753
 Tristellateia Thouars
 Verrucularina (sv) Verrucularia A.Juss., 1840, non Suhr, 1834
-Selon Tropicos                                           (24 août 2020)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Acmanthera (A. Juss.) Griseb.
 Acosmus Desv.
 Acridocarpus Guill. &amp; Perr.
@@ -884,9 +902,11 @@
           <t>Liste des genres fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (24 août 2020)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (24 août 2020) :
 Banisteriaecarpum
 Banisteriophyllum
 Malpighiastrum
